--- a/input/PerModPAR.xlsx
+++ b/input/PerModPAR.xlsx
@@ -215,7 +215,7 @@
     <t xml:space="preserve">Product 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Generic AC-System</t>
+    <t xml:space="preserve">AC-System</t>
   </si>
   <si>
     <t xml:space="preserve">Junelight Smart Battery 9,9</t>
@@ -1068,13 +1068,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0\ %"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0\ %"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1186,11 +1185,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1247,10 +1246,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1259,15 +1254,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1307,7 +1294,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1315,51 +1314,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1462,9 +1425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>331200</xdr:colOff>
+      <xdr:colOff>330840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1478,7 +1441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4947480" y="261000"/>
-          <a:ext cx="9282960" cy="3305880"/>
+          <a:ext cx="9282600" cy="3305520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1504,9 +1467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1516,7 +1479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,9 +1512,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1561,7 +1524,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1594,9 +1557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1606,7 +1569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1639,9 +1602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1651,7 +1614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1696,7 +1659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,9 +1692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1741,7 +1704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1774,9 +1737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1786,7 +1749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,9 +1782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1831,7 +1794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,9 +1827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1876,7 +1839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,9 +1872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1921,7 +1884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1954,9 +1917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1966,7 +1929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1999,9 +1962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2011,7 +1974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2044,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2056,7 +2019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2089,9 +2052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2101,7 +2064,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,9 +2097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2146,7 +2109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2179,9 +2142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2191,7 +2154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2224,9 +2187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2236,7 +2199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2269,9 +2232,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2281,7 +2244,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2326,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2359,9 +2322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2404,9 +2367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2416,7 +2379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,9 +2412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2461,7 +2424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2494,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2506,7 +2469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2539,9 +2502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2551,7 +2514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2584,9 +2547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2596,7 +2559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2629,9 +2592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2641,7 +2604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2674,9 +2637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2686,7 +2649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2719,9 +2682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2731,7 +2694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2764,9 +2727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2776,7 +2739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,9 +2772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2821,7 +2784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2854,9 +2817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2866,7 +2829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2899,9 +2862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2911,7 +2874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2944,9 +2907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2956,7 +2919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11884680" cy="7837920"/>
+          <a:ext cx="11886840" cy="7837560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3193,14 +3156,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="14.5"/>
@@ -3208,7 +3171,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="6" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="16.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="8.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="15" style="5" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -3337,28 +3300,28 @@
       <c r="J4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3388,28 +3351,28 @@
       <c r="J5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>68</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3427,26 +3390,26 @@
       <c r="J6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="16"/>
+      <c r="L6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="15"/>
       <c r="N6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3464,13 +3427,13 @@
       <c r="J7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="16"/>
+      <c r="L7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="15"/>
       <c r="N7" s="7" t="s">
         <v>55</v>
       </c>
@@ -3482,11 +3445,11 @@
       <c r="F8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="O8" s="16" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="O8" s="15" t="s">
         <v>55</v>
       </c>
       <c r="P8" s="5" t="s">
@@ -3510,8 +3473,8 @@
       <c r="H9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="O9" s="5" t="s">
         <v>55</v>
       </c>
@@ -3536,8 +3499,8 @@
       <c r="H10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="7" t="s">
         <v>55</v>
       </c>
@@ -3561,37 +3524,37 @@
       <c r="F11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3602,37 +3565,37 @@
       <c r="F12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3643,37 +3606,37 @@
       <c r="F13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3685,8 +3648,8 @@
       <c r="H14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="8" t="s">
         <v>55</v>
       </c>
@@ -3729,13 +3692,13 @@
       <c r="J15" s="13" t="n">
         <v>10380</v>
       </c>
-      <c r="K15" s="19" t="n">
+      <c r="K15" s="17" t="n">
         <v>10222.5</v>
       </c>
-      <c r="L15" s="19" t="n">
+      <c r="L15" s="17" t="n">
         <v>4764.16757820415</v>
       </c>
-      <c r="M15" s="20" t="n">
+      <c r="M15" s="17" t="n">
         <v>10214.5045965271</v>
       </c>
       <c r="O15" s="5" t="s">
@@ -3798,33 +3761,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21" t="s">
+    <row r="17" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="22"/>
+      <c r="O17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="19"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,33 +3931,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21" t="s">
+    <row r="21" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="22"/>
+      <c r="O21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="19"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,8 +4063,8 @@
       <c r="H24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="8" t="s">
         <v>55</v>
       </c>
@@ -4138,13 +4101,13 @@
       <c r="H25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="24" t="n">
+      <c r="I25" s="21" t="n">
         <v>5487</v>
       </c>
-      <c r="J25" s="24" t="n">
+      <c r="J25" s="21" t="n">
         <v>9921</v>
       </c>
-      <c r="K25" s="19" t="n">
+      <c r="K25" s="17" t="n">
         <v>10042.4</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4185,13 +4148,13 @@
       <c r="H26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="19" t="n">
+      <c r="I26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="17" t="n">
         <v>9997.2</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -4226,7 +4189,7 @@
       <c r="F27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="19" t="n">
+      <c r="G27" s="17" t="n">
         <v>1000</v>
       </c>
       <c r="H27" s="5" t="n">
@@ -4235,7 +4198,7 @@
       <c r="I27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -4273,7 +4236,7 @@
       <c r="F28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="19" t="n">
+      <c r="G28" s="17" t="n">
         <v>1000</v>
       </c>
       <c r="H28" s="5" t="n">
@@ -4282,7 +4245,7 @@
       <c r="I28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="21" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -4326,13 +4289,13 @@
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="24" t="n">
+      <c r="I29" s="21" t="n">
         <v>3157</v>
       </c>
-      <c r="J29" s="24" t="n">
+      <c r="J29" s="21" t="n">
         <v>5776</v>
       </c>
-      <c r="K29" s="19" t="n">
+      <c r="K29" s="17" t="n">
         <v>9822.6</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -4363,8 +4326,8 @@
       <c r="H30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="8" t="s">
         <v>55</v>
       </c>
@@ -4491,8 +4454,8 @@
       <c r="H33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="8" t="s">
         <v>55</v>
       </c>
@@ -4523,19 +4486,19 @@
       <c r="F34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="19" t="n">
+      <c r="G34" s="17" t="n">
         <v>950</v>
       </c>
-      <c r="H34" s="19" t="n">
+      <c r="H34" s="17" t="n">
         <v>3391.8</v>
       </c>
-      <c r="I34" s="24" t="n">
+      <c r="I34" s="21" t="n">
         <v>3445</v>
       </c>
-      <c r="J34" s="24" t="n">
+      <c r="J34" s="21" t="n">
         <v>6214</v>
       </c>
-      <c r="K34" s="19" t="n">
+      <c r="K34" s="17" t="n">
         <v>9723.6</v>
       </c>
       <c r="L34" s="5" t="s">
@@ -4570,19 +4533,19 @@
       <c r="F35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="19" t="n">
+      <c r="G35" s="17" t="n">
         <v>1053</v>
       </c>
       <c r="H35" s="5" t="n">
         <v>3719</v>
       </c>
-      <c r="I35" s="24" t="n">
+      <c r="I35" s="21" t="n">
         <v>3319</v>
       </c>
-      <c r="J35" s="24" t="n">
+      <c r="J35" s="21" t="n">
         <v>6008</v>
       </c>
-      <c r="K35" s="19" t="n">
+      <c r="K35" s="17" t="n">
         <v>10060.2</v>
       </c>
       <c r="L35" s="5" t="s">
@@ -4613,8 +4576,8 @@
       <c r="H36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="8" t="s">
         <v>55</v>
       </c>
@@ -4632,33 +4595,33 @@
       <c r="R36" s="8"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="21" t="s">
+    <row r="37" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R37" s="22"/>
+      <c r="O37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" s="19"/>
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,10 +4643,10 @@
       <c r="H38" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="I38" s="24" t="n">
+      <c r="I38" s="21" t="n">
         <v>200</v>
       </c>
-      <c r="J38" s="24" t="n">
+      <c r="J38" s="21" t="n">
         <v>360</v>
       </c>
       <c r="K38" s="5" t="n">
@@ -4727,10 +4690,10 @@
       <c r="H39" s="5" t="n">
         <v>51.8</v>
       </c>
-      <c r="I39" s="24" t="n">
+      <c r="I39" s="21" t="n">
         <v>256</v>
       </c>
-      <c r="J39" s="24" t="n">
+      <c r="J39" s="21" t="n">
         <v>460</v>
       </c>
       <c r="K39" s="5" t="n">
@@ -4774,10 +4737,10 @@
       <c r="H40" s="5" t="n">
         <v>58.8</v>
       </c>
-      <c r="I40" s="24" t="n">
+      <c r="I40" s="21" t="n">
         <v>282</v>
       </c>
-      <c r="J40" s="24" t="n">
+      <c r="J40" s="21" t="n">
         <v>500</v>
       </c>
       <c r="K40" s="5" t="n">
@@ -4802,37 +4765,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="21" t="s">
+    <row r="41" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R41" s="22"/>
+      <c r="O41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" s="19"/>
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -4844,19 +4807,19 @@
       <c r="F42" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="26" t="n">
+      <c r="G42" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="26" t="n">
+      <c r="H42" s="23" t="n">
         <v>8.885</v>
       </c>
-      <c r="I42" s="27" t="n">
+      <c r="I42" s="24" t="n">
         <v>5.757</v>
       </c>
-      <c r="J42" s="27" t="n">
+      <c r="J42" s="24" t="n">
         <v>10.612</v>
       </c>
-      <c r="K42" s="28" t="n">
+      <c r="K42" s="25" t="n">
         <v>9.6919</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -4879,7 +4842,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="22" t="s">
         <v>147</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -4891,19 +4854,19 @@
       <c r="F43" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G43" s="26" t="n">
+      <c r="G43" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H43" s="26" t="n">
+      <c r="H43" s="23" t="n">
         <v>8.867</v>
       </c>
-      <c r="I43" s="27" t="n">
+      <c r="I43" s="24" t="n">
         <v>5.606</v>
       </c>
-      <c r="J43" s="27" t="n">
+      <c r="J43" s="24" t="n">
         <v>10.441</v>
       </c>
-      <c r="K43" s="28" t="n">
+      <c r="K43" s="25" t="n">
         <v>9.62</v>
       </c>
       <c r="L43" s="5" t="s">
@@ -4926,7 +4889,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="22" t="s">
         <v>150</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -4938,19 +4901,19 @@
       <c r="F44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="26" t="n">
+      <c r="G44" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H44" s="26" t="n">
+      <c r="H44" s="23" t="n">
         <v>8.787</v>
       </c>
-      <c r="I44" s="27" t="n">
+      <c r="I44" s="24" t="n">
         <v>5.68</v>
       </c>
-      <c r="J44" s="27" t="n">
+      <c r="J44" s="24" t="n">
         <v>10.468</v>
       </c>
-      <c r="K44" s="28" t="n">
+      <c r="K44" s="25" t="n">
         <v>9.8253</v>
       </c>
       <c r="L44" s="5" t="s">
@@ -4972,91 +4935,91 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="C45" s="30" t="s">
+    <row r="45" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="25"/>
+      <c r="C45" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G45" s="32" t="n">
+      <c r="G45" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="H45" s="33" t="n">
+      <c r="H45" s="24" t="n">
         <f aca="false">IF(AND(IF(H42="c",0,1),IF(H43="c",0,1),IF(H44="c",0,1))=1,"c",AVERAGE(H42:H44))</f>
         <v>8.84633333333333</v>
       </c>
-      <c r="I45" s="33" t="n">
+      <c r="I45" s="24" t="n">
         <f aca="false">IF(AND(IF(I42="v",0,1),IF(I43="v",0,1),IF(I44="v",0,1))=TRUE(),AVERAGE(I42:I44),"v")</f>
         <v>5.681</v>
       </c>
-      <c r="J45" s="33" t="n">
+      <c r="J45" s="24" t="n">
         <f aca="false">IF(AND(IF(J42="c",0,1),IF(J43="c",0,1),IF(J44="c",0,1))=1,"c",AVERAGE(J42:J44))</f>
         <v>10.507</v>
       </c>
-      <c r="K45" s="33" t="str">
+      <c r="K45" s="24" t="str">
         <f aca="false">IF(AND(IF(K42="c",0,1),IF(K43="c",0,1),IF(K44="c",0,1))=1,"c",AVERAGE(K42:K44))</f>
         <v>c</v>
       </c>
-      <c r="L45" s="31" t="s">
+      <c r="L45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N45" s="7"/>
-      <c r="O45" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="R45" s="31" t="s">
+      <c r="O45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="21" t="s">
+    <row r="46" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R46" s="22"/>
+      <c r="O46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" s="19"/>
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="22" t="s">
         <v>143</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -5068,19 +5031,19 @@
       <c r="F47" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="26" t="n">
+      <c r="G47" s="23" t="n">
         <v>94</v>
       </c>
-      <c r="H47" s="26" t="n">
+      <c r="H47" s="23" t="n">
         <v>96.4</v>
       </c>
-      <c r="I47" s="27" t="n">
+      <c r="I47" s="24" t="n">
         <v>95.08</v>
       </c>
-      <c r="J47" s="27" t="n">
+      <c r="J47" s="24" t="n">
         <v>95.39</v>
       </c>
-      <c r="K47" s="28" t="n">
+      <c r="K47" s="25" t="n">
         <v>95.9252147749317</v>
       </c>
       <c r="L47" s="5" t="s">
@@ -5103,7 +5066,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="22" t="s">
         <v>147</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -5115,19 +5078,19 @@
       <c r="F48" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="26" t="n">
+      <c r="G48" s="23" t="n">
         <v>95</v>
       </c>
-      <c r="H48" s="26" t="n">
+      <c r="H48" s="23" t="n">
         <v>97.2</v>
       </c>
-      <c r="I48" s="27" t="n">
+      <c r="I48" s="24" t="n">
         <v>95.2</v>
       </c>
-      <c r="J48" s="27" t="n">
+      <c r="J48" s="24" t="n">
         <v>95.48</v>
       </c>
-      <c r="K48" s="28" t="n">
+      <c r="K48" s="25" t="n">
         <v>96.4972114111463</v>
       </c>
       <c r="L48" s="5" t="s">
@@ -5150,7 +5113,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="22" t="s">
         <v>150</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -5162,19 +5125,19 @@
       <c r="F49" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="26" t="n">
+      <c r="G49" s="23" t="n">
         <v>96</v>
       </c>
-      <c r="H49" s="26" t="n">
+      <c r="H49" s="23" t="n">
         <v>97</v>
       </c>
-      <c r="I49" s="27" t="n">
+      <c r="I49" s="24" t="n">
         <v>94.17</v>
       </c>
-      <c r="J49" s="27" t="n">
+      <c r="J49" s="24" t="n">
         <v>94.98</v>
       </c>
-      <c r="K49" s="28" t="n">
+      <c r="K49" s="25" t="n">
         <v>95.9858150485532</v>
       </c>
       <c r="L49" s="5" t="s">
@@ -5196,59 +5159,59 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29"/>
-      <c r="C50" s="17" t="s">
+    <row r="50" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="25"/>
+      <c r="C50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="32" t="n">
+      <c r="G50" s="26" t="n">
         <v>95</v>
       </c>
-      <c r="H50" s="33" t="n">
+      <c r="H50" s="24" t="n">
         <f aca="false">IF(AND(IF(H47="c",0,1),IF(H48="c",0,1),IF(H49="c",0,1))=1,"c",AVERAGE(H47:H49))</f>
         <v>96.8666666666667</v>
       </c>
-      <c r="I50" s="33" t="n">
+      <c r="I50" s="24" t="n">
         <f aca="false">IF(AND(IF(I47="v",0,1),IF(I48="v",0,1),IF(I49="v",0,1))=TRUE(),AVERAGE(I47:I49),"v")</f>
         <v>94.8166666666667</v>
       </c>
-      <c r="J50" s="33" t="n">
+      <c r="J50" s="24" t="n">
         <f aca="false">IF(AND(IF(J47="c",0,1),IF(J48="c",0,1),IF(J49="c",0,1))=1,"c",AVERAGE(J47:J49))</f>
         <v>95.2833333333333</v>
       </c>
-      <c r="K50" s="33" t="str">
+      <c r="K50" s="24" t="str">
         <f aca="false">IF(AND(IF(K47="c",0,1),IF(K48="c",0,1),IF(K49="c",0,1))=1,"c",AVERAGE(K47:K49))</f>
         <v>c</v>
       </c>
-      <c r="L50" s="31" t="s">
+      <c r="L50" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N50" s="7"/>
-      <c r="O50" s="34" t="str">
+      <c r="O50" s="23" t="str">
         <f aca="false">IF(AND(IF(O47="c",0,1),IF(O48="c",0,1),IF(O49="c",0,1))=1,AVERAGE(O47:O49),"c")</f>
         <v>c</v>
       </c>
-      <c r="P50" s="34" t="str">
+      <c r="P50" s="23" t="str">
         <f aca="false">IF(AND(IF(P47="c",0,1),IF(P48="c",0,1),IF(P49="c",0,1))=1,AVERAGE(P47:P49),"c")</f>
         <v>c</v>
       </c>
-      <c r="Q50" s="34" t="str">
+      <c r="Q50" s="23" t="str">
         <f aca="false">IF(AND(IF(Q47="c",0,1),IF(Q48="c",0,1),IF(Q49="c",0,1))=1,AVERAGE(Q47:Q49),"c")</f>
         <v>c</v>
       </c>
-      <c r="R50" s="31" t="s">
+      <c r="R50" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AMJ50" s="0"/>
@@ -5262,8 +5225,8 @@
       <c r="H51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
       <c r="K51" s="8" t="s">
         <v>55</v>
       </c>
@@ -5281,38 +5244,38 @@
       <c r="R51" s="8"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="21" t="s">
+    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P52" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q52" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R52" s="22"/>
+      <c r="O52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" s="19"/>
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="4" t="s">
         <v>168</v>
       </c>
@@ -5334,7 +5297,7 @@
       <c r="I53" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="27" t="s">
+      <c r="J53" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K53" s="5" t="s">
@@ -5360,8 +5323,8 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="4" t="s">
         <v>171</v>
       </c>
@@ -5380,10 +5343,10 @@
       <c r="H54" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="I54" s="27" t="n">
+      <c r="I54" s="24" t="n">
         <v>0.15</v>
       </c>
-      <c r="J54" s="27" t="n">
+      <c r="J54" s="24" t="n">
         <v>0.15</v>
       </c>
       <c r="K54" s="5" t="n">
@@ -5408,40 +5371,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="21" t="s">
+    <row r="55" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="23"/>
-      <c r="K55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="20"/>
+      <c r="K55" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R55" s="22"/>
+      <c r="O55" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R55" s="19"/>
       <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="4" t="s">
         <v>168</v>
       </c>
@@ -5460,10 +5423,10 @@
       <c r="H56" s="5" t="n">
         <v>12.1</v>
       </c>
-      <c r="I56" s="27" t="n">
+      <c r="I56" s="24" t="n">
         <v>4.47</v>
       </c>
-      <c r="J56" s="27" t="n">
+      <c r="J56" s="24" t="n">
         <v>4.47</v>
       </c>
       <c r="K56" s="5" t="n">
@@ -5489,8 +5452,8 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="4" t="s">
         <v>171</v>
       </c>
@@ -5509,10 +5472,10 @@
       <c r="H57" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="27" t="n">
+      <c r="I57" s="24" t="n">
         <v>4.56</v>
       </c>
-      <c r="J57" s="27" t="n">
+      <c r="J57" s="24" t="n">
         <v>4.71</v>
       </c>
       <c r="K57" s="5" t="n">
@@ -5537,35 +5500,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="21" t="s">
+    <row r="58" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="23"/>
-      <c r="K58" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="20"/>
+      <c r="K58" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P58" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q58" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R58" s="22"/>
+      <c r="O58" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P58" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q58" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R58" s="19"/>
       <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,7 +5556,7 @@
       <c r="I59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="27" t="s">
+      <c r="J59" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K59" s="5" t="s">
@@ -5634,16 +5597,16 @@
       <c r="F60" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="26" t="n">
+      <c r="G60" s="23" t="n">
         <v>2</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I60" s="27" t="n">
+      <c r="I60" s="24" t="n">
         <v>1.55</v>
       </c>
-      <c r="J60" s="27" t="n">
+      <c r="J60" s="24" t="n">
         <v>1.77</v>
       </c>
       <c r="K60" s="5" t="n">
@@ -5677,10 +5640,10 @@
       <c r="H61" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I61" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J61" s="18"/>
+      <c r="I61" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="16"/>
       <c r="K61" s="8" t="s">
         <v>55</v>
       </c>
@@ -5717,10 +5680,10 @@
       <c r="H62" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="I62" s="35" t="n">
+      <c r="I62" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="J62" s="35" t="n">
+      <c r="J62" s="27" t="n">
         <v>1.34</v>
       </c>
       <c r="K62" s="5" t="n">
@@ -5744,8 +5707,8 @@
       <c r="R62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="26"/>
-      <c r="T62" s="27"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="4" t="s">
@@ -5766,10 +5729,10 @@
       <c r="H63" s="5" t="n">
         <v>2.1</v>
       </c>
-      <c r="I63" s="35" t="n">
+      <c r="I63" s="27" t="n">
         <v>13.84</v>
       </c>
-      <c r="J63" s="35" t="n">
+      <c r="J63" s="27" t="n">
         <v>10.97</v>
       </c>
       <c r="K63" s="5" t="n">
@@ -5815,10 +5778,10 @@
       <c r="H64" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="I64" s="35" t="n">
+      <c r="I64" s="27" t="n">
         <v>1.98</v>
       </c>
-      <c r="J64" s="35" t="n">
+      <c r="J64" s="27" t="n">
         <v>2.98</v>
       </c>
       <c r="K64" s="5" t="n">
@@ -5842,8 +5805,8 @@
       <c r="R64" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="26"/>
-      <c r="T64" s="27"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="24"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="4" t="s">
@@ -5864,10 +5827,10 @@
       <c r="H65" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="I65" s="35" t="n">
+      <c r="I65" s="27" t="n">
         <v>2.86</v>
       </c>
-      <c r="J65" s="35" t="n">
+      <c r="J65" s="27" t="n">
         <v>2.65</v>
       </c>
       <c r="K65" s="5" t="n">
@@ -5893,7 +5856,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="4" t="s">
         <v>198</v>
       </c>
@@ -5915,7 +5878,7 @@
       <c r="I66" s="5" t="n">
         <v>0.63</v>
       </c>
-      <c r="J66" s="36" t="n">
+      <c r="J66" s="27" t="n">
         <v>0.61</v>
       </c>
       <c r="K66" s="5" t="n">
@@ -5941,7 +5904,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="4" t="s">
         <v>202</v>
       </c>
@@ -5963,7 +5926,7 @@
       <c r="I67" s="5" t="n">
         <v>2.79</v>
       </c>
-      <c r="J67" s="36" t="n">
+      <c r="J67" s="27" t="n">
         <v>2.74</v>
       </c>
       <c r="K67" s="5" t="n">
@@ -5997,8 +5960,8 @@
       <c r="H68" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
       <c r="K68" s="8" t="s">
         <v>55</v>
       </c>
@@ -6016,43 +5979,43 @@
       <c r="R68" s="8"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="21" t="s">
+    <row r="69" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q69" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R69" s="22"/>
+      <c r="O69" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P69" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q69" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R69" s="19"/>
       <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="37" t="n">
+      <c r="C70" s="28" t="n">
         <v>0.05</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="29" t="s">
         <v>208</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -6061,13 +6024,13 @@
       <c r="H70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="35" t="n">
+      <c r="I70" s="27" t="n">
         <v>0.0439219974485147</v>
       </c>
-      <c r="J70" s="35" t="n">
+      <c r="J70" s="27" t="n">
         <v>0.047</v>
       </c>
-      <c r="K70" s="39" t="n">
+      <c r="K70" s="30" t="n">
         <v>0.0466820680315462</v>
       </c>
       <c r="L70" s="5" t="s">
@@ -6090,10 +6053,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="37" t="n">
+      <c r="C71" s="28" t="n">
         <v>0.1</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="29" t="s">
         <v>209</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -6102,20 +6065,20 @@
       <c r="H71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="35" t="n">
+      <c r="I71" s="27" t="n">
         <v>0.095297977036632</v>
       </c>
-      <c r="J71" s="35" t="n">
+      <c r="J71" s="27" t="n">
         <v>0.099</v>
       </c>
-      <c r="K71" s="39" t="n">
+      <c r="K71" s="30" t="n">
         <v>0.0946188162192305</v>
       </c>
-      <c r="L71" s="37" t="n">
+      <c r="L71" s="28" t="n">
         <f aca="false">0.1*5/4.6</f>
         <v>0.108695652173913</v>
       </c>
-      <c r="M71" s="37" t="n">
+      <c r="M71" s="28" t="n">
         <v>0.1</v>
       </c>
       <c r="O71" s="5" t="s">
@@ -6132,10 +6095,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="37" t="n">
+      <c r="C72" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="29" t="s">
         <v>210</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -6144,13 +6107,13 @@
       <c r="H72" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="35" t="n">
+      <c r="I72" s="27" t="n">
         <v>0.197175141242938</v>
       </c>
-      <c r="J72" s="35" t="n">
+      <c r="J72" s="27" t="n">
         <v>0.201</v>
       </c>
-      <c r="K72" s="39" t="n">
+      <c r="K72" s="30" t="n">
         <v>0.19791085796224</v>
       </c>
       <c r="L72" s="5" t="s">
@@ -6173,10 +6136,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="37" t="n">
+      <c r="C73" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="29" t="s">
         <v>211</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -6185,20 +6148,20 @@
       <c r="H73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I73" s="35" t="n">
+      <c r="I73" s="27" t="n">
         <v>0.247639876070713</v>
       </c>
-      <c r="J73" s="35" t="n">
+      <c r="J73" s="27" t="n">
         <v>0.252</v>
       </c>
-      <c r="K73" s="39" t="n">
+      <c r="K73" s="30" t="n">
         <v>0.24536963275711</v>
       </c>
-      <c r="L73" s="37" t="n">
+      <c r="L73" s="28" t="n">
         <f aca="false">0.25*5/4.6</f>
         <v>0.271739130434783</v>
       </c>
-      <c r="M73" s="37" t="n">
+      <c r="M73" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="O73" s="5" t="s">
@@ -6215,10 +6178,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="37" t="n">
+      <c r="C74" s="28" t="n">
         <v>0.3</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="29" t="s">
         <v>212</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -6227,13 +6190,13 @@
       <c r="H74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I74" s="35" t="n">
+      <c r="I74" s="27" t="n">
         <v>0.29768543830873</v>
       </c>
-      <c r="J74" s="35" t="n">
+      <c r="J74" s="27" t="n">
         <v>0.303</v>
       </c>
-      <c r="K74" s="39" t="n">
+      <c r="K74" s="30" t="n">
         <v>0.300904166334741</v>
       </c>
       <c r="L74" s="5" t="s">
@@ -6256,10 +6219,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="37" t="n">
+      <c r="C75" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="29" t="s">
         <v>213</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -6268,20 +6231,20 @@
       <c r="H75" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I75" s="35" t="n">
+      <c r="I75" s="27" t="n">
         <v>0.500091124476034</v>
       </c>
-      <c r="J75" s="35" t="n">
+      <c r="J75" s="27" t="n">
         <v>0.506</v>
       </c>
-      <c r="K75" s="39" t="n">
+      <c r="K75" s="30" t="n">
         <v>0.498347008683183</v>
       </c>
-      <c r="L75" s="37" t="n">
+      <c r="L75" s="28" t="n">
         <f aca="false">0.5*5/4.6</f>
         <v>0.543478260869565</v>
       </c>
-      <c r="M75" s="37" t="n">
+      <c r="M75" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="O75" s="5" t="s">
@@ -6298,10 +6261,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="37" t="n">
+      <c r="C76" s="28" t="n">
         <v>0.75</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="29" t="s">
         <v>214</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -6310,20 +6273,20 @@
       <c r="H76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="35" t="n">
+      <c r="I76" s="27" t="n">
         <v>0.750683433570257</v>
       </c>
-      <c r="J76" s="35" t="n">
+      <c r="J76" s="27" t="n">
         <v>0.755</v>
       </c>
-      <c r="K76" s="39" t="n">
+      <c r="K76" s="30" t="n">
         <v>0.749472237712101</v>
       </c>
-      <c r="L76" s="37" t="n">
+      <c r="L76" s="28" t="n">
         <f aca="false">0.75*5/4.6</f>
         <v>0.815217391304348</v>
       </c>
-      <c r="M76" s="37" t="n">
+      <c r="M76" s="28" t="n">
         <v>0.75</v>
       </c>
       <c r="O76" s="5" t="s">
@@ -6340,10 +6303,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="37" t="n">
+      <c r="C77" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="29" t="s">
         <v>215</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -6352,19 +6315,19 @@
       <c r="H77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I77" s="35" t="n">
+      <c r="I77" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="J77" s="35" t="n">
+      <c r="J77" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="K77" s="39" t="n">
+      <c r="K77" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="L77" s="37" t="n">
+      <c r="L77" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="M77" s="37" t="n">
+      <c r="M77" s="28" t="n">
         <v>1</v>
       </c>
       <c r="O77" s="5" t="s">
@@ -6380,48 +6343,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="21" t="s">
+    <row r="78" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q78" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R78" s="22"/>
+      <c r="O78" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P78" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q78" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R78" s="19"/>
       <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="37" t="n">
+      <c r="C79" s="28" t="n">
         <v>0.05</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="29" t="s">
         <v>218</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -6433,13 +6396,13 @@
       <c r="H79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I79" s="35" t="n">
+      <c r="I79" s="27" t="n">
         <v>86.94</v>
       </c>
-      <c r="J79" s="35" t="n">
+      <c r="J79" s="27" t="n">
         <v>91.03</v>
       </c>
-      <c r="K79" s="39" t="n">
+      <c r="K79" s="30" t="n">
         <v>93.7937183464588</v>
       </c>
       <c r="L79" s="5" t="s">
@@ -6462,13 +6425,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="37" t="n">
+      <c r="C80" s="28" t="n">
         <v>0.1</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="38" t="s">
+      <c r="E80" s="29" t="s">
         <v>220</v>
       </c>
       <c r="F80" s="5" t="s">
@@ -6480,19 +6443,19 @@
       <c r="H80" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="35" t="n">
+      <c r="I80" s="27" t="n">
         <v>92.72</v>
       </c>
-      <c r="J80" s="35" t="n">
+      <c r="J80" s="27" t="n">
         <v>94.8</v>
       </c>
-      <c r="K80" s="39" t="n">
+      <c r="K80" s="30" t="n">
         <v>96.3969802295197</v>
       </c>
-      <c r="L80" s="26" t="n">
+      <c r="L80" s="23" t="n">
         <v>95.41</v>
       </c>
-      <c r="M80" s="26" t="n">
+      <c r="M80" s="23" t="n">
         <v>96.6</v>
       </c>
       <c r="O80" s="5" t="s">
@@ -6509,13 +6472,13 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="37" t="n">
+      <c r="C81" s="28" t="n">
         <v>0.2</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E81" s="38" t="s">
+      <c r="E81" s="29" t="s">
         <v>222</v>
       </c>
       <c r="F81" s="5" t="s">
@@ -6527,13 +6490,13 @@
       <c r="H81" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I81" s="35" t="n">
+      <c r="I81" s="27" t="n">
         <v>95.34</v>
       </c>
-      <c r="J81" s="35" t="n">
+      <c r="J81" s="27" t="n">
         <v>96.31</v>
       </c>
-      <c r="K81" s="39" t="n">
+      <c r="K81" s="30" t="n">
         <v>97.6460797053753</v>
       </c>
       <c r="L81" s="5" t="s">
@@ -6556,13 +6519,13 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="37" t="n">
+      <c r="C82" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="29" t="s">
         <v>224</v>
       </c>
       <c r="F82" s="5" t="s">
@@ -6574,19 +6537,19 @@
       <c r="H82" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I82" s="35" t="n">
+      <c r="I82" s="27" t="n">
         <v>95.84</v>
       </c>
-      <c r="J82" s="35" t="n">
+      <c r="J82" s="27" t="n">
         <v>96.52</v>
       </c>
-      <c r="K82" s="39" t="n">
+      <c r="K82" s="30" t="n">
         <v>97.8979496462706</v>
       </c>
-      <c r="L82" s="26" t="n">
+      <c r="L82" s="23" t="n">
         <v>96.8</v>
       </c>
-      <c r="M82" s="26" t="n">
+      <c r="M82" s="23" t="n">
         <v>98.1</v>
       </c>
       <c r="O82" s="5" t="s">
@@ -6603,13 +6566,13 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="37" t="n">
+      <c r="C83" s="28" t="n">
         <v>0.3</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E83" s="38" t="s">
+      <c r="E83" s="29" t="s">
         <v>226</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -6621,13 +6584,13 @@
       <c r="H83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I83" s="35" t="n">
+      <c r="I83" s="27" t="n">
         <v>96.11</v>
       </c>
-      <c r="J83" s="35" t="n">
+      <c r="J83" s="27" t="n">
         <v>96.65</v>
       </c>
-      <c r="K83" s="39" t="n">
+      <c r="K83" s="30" t="n">
         <v>97.9922955658597</v>
       </c>
       <c r="L83" s="5" t="s">
@@ -6650,13 +6613,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="37" t="n">
+      <c r="C84" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="38" t="s">
+      <c r="E84" s="29" t="s">
         <v>228</v>
       </c>
       <c r="F84" s="5" t="s">
@@ -6668,19 +6631,19 @@
       <c r="H84" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I84" s="35" t="n">
+      <c r="I84" s="27" t="n">
         <v>96.6</v>
       </c>
-      <c r="J84" s="35" t="n">
+      <c r="J84" s="27" t="n">
         <v>96.71</v>
       </c>
-      <c r="K84" s="39" t="n">
+      <c r="K84" s="30" t="n">
         <v>98.0848822299671</v>
       </c>
-      <c r="L84" s="26" t="n">
+      <c r="L84" s="23" t="n">
         <v>97.11</v>
       </c>
-      <c r="M84" s="26" t="n">
+      <c r="M84" s="23" t="n">
         <v>98.3</v>
       </c>
       <c r="O84" s="5" t="s">
@@ -6697,13 +6660,13 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="37" t="n">
+      <c r="C85" s="28" t="n">
         <v>0.75</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E85" s="38" t="s">
+      <c r="E85" s="29" t="s">
         <v>230</v>
       </c>
       <c r="F85" s="5" t="s">
@@ -6715,19 +6678,19 @@
       <c r="H85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I85" s="35" t="n">
+      <c r="I85" s="27" t="n">
         <v>96.63</v>
       </c>
-      <c r="J85" s="35" t="n">
+      <c r="J85" s="27" t="n">
         <v>96.21</v>
       </c>
-      <c r="K85" s="39" t="n">
+      <c r="K85" s="30" t="n">
         <v>98.0355336199904</v>
       </c>
-      <c r="L85" s="26" t="n">
+      <c r="L85" s="23" t="n">
         <v>96.79</v>
       </c>
-      <c r="M85" s="26" t="n">
+      <c r="M85" s="23" t="n">
         <v>98.2</v>
       </c>
       <c r="O85" s="5" t="s">
@@ -6744,13 +6707,13 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="37" t="n">
+      <c r="C86" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E86" s="38" t="s">
+      <c r="E86" s="29" t="s">
         <v>232</v>
       </c>
       <c r="F86" s="5" t="s">
@@ -6762,19 +6725,19 @@
       <c r="H86" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I86" s="35" t="n">
+      <c r="I86" s="27" t="n">
         <v>96.5</v>
       </c>
-      <c r="J86" s="35" t="n">
+      <c r="J86" s="27" t="n">
         <v>95.56</v>
       </c>
-      <c r="K86" s="39" t="n">
+      <c r="K86" s="30" t="n">
         <v>97.8970419482268</v>
       </c>
-      <c r="L86" s="26" t="n">
+      <c r="L86" s="23" t="n">
         <v>96.5541183111356</v>
       </c>
-      <c r="M86" s="26" t="n">
+      <c r="M86" s="23" t="n">
         <v>97.9</v>
       </c>
       <c r="O86" s="5" t="s">
@@ -6790,46 +6753,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="21" t="s">
+    <row r="87" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
       <c r="N87" s="7"/>
-      <c r="O87" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P87" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q87" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R87" s="22"/>
+      <c r="O87" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P87" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q87" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R87" s="19"/>
       <c r="AMJ87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="37" t="n">
+      <c r="C88" s="28" t="n">
         <v>0.05</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38" t="s">
+      <c r="D88" s="29"/>
+      <c r="E88" s="29" t="s">
         <v>234</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -6838,13 +6801,13 @@
       <c r="H88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I88" s="35" t="n">
+      <c r="I88" s="27" t="n">
         <v>0.03</v>
       </c>
-      <c r="J88" s="35" t="n">
+      <c r="J88" s="27" t="n">
         <v>0.04</v>
       </c>
-      <c r="K88" s="39" t="n">
+      <c r="K88" s="30" t="n">
         <v>0.0438212184787527</v>
       </c>
       <c r="L88" s="5" t="s">
@@ -6867,11 +6830,11 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="37" t="n">
+      <c r="C89" s="28" t="n">
         <v>0.1</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38" t="s">
+      <c r="D89" s="29"/>
+      <c r="E89" s="29" t="s">
         <v>235</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -6880,13 +6843,13 @@
       <c r="H89" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I89" s="35" t="n">
+      <c r="I89" s="27" t="n">
         <v>0.08</v>
       </c>
-      <c r="J89" s="35" t="n">
+      <c r="J89" s="27" t="n">
         <v>0.09</v>
       </c>
-      <c r="K89" s="39" t="n">
+      <c r="K89" s="30" t="n">
         <v>0.0919618248385372</v>
       </c>
       <c r="L89" s="5" t="s">
@@ -6909,11 +6872,11 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="37" t="n">
+      <c r="C90" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38" t="s">
+      <c r="D90" s="29"/>
+      <c r="E90" s="29" t="s">
         <v>236</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -6922,13 +6885,13 @@
       <c r="H90" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I90" s="35" t="n">
+      <c r="I90" s="27" t="n">
         <v>0.19</v>
       </c>
-      <c r="J90" s="35" t="n">
+      <c r="J90" s="27" t="n">
         <v>0.19</v>
       </c>
-      <c r="K90" s="39" t="n">
+      <c r="K90" s="30" t="n">
         <v>0.194783824920811</v>
       </c>
       <c r="L90" s="5" t="s">
@@ -6951,11 +6914,11 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="37" t="n">
+      <c r="C91" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38" t="s">
+      <c r="D91" s="29"/>
+      <c r="E91" s="29" t="s">
         <v>237</v>
       </c>
       <c r="G91" s="5" t="s">
@@ -6964,13 +6927,13 @@
       <c r="H91" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I91" s="35" t="n">
+      <c r="I91" s="27" t="n">
         <v>0.24</v>
       </c>
-      <c r="J91" s="35" t="n">
+      <c r="J91" s="27" t="n">
         <v>0.24</v>
       </c>
-      <c r="K91" s="39" t="n">
+      <c r="K91" s="30" t="n">
         <v>0.242770167427702</v>
       </c>
       <c r="L91" s="5" t="s">
@@ -6993,11 +6956,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="37" t="n">
+      <c r="C92" s="28" t="n">
         <v>0.3</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38" t="s">
+      <c r="D92" s="29"/>
+      <c r="E92" s="29" t="s">
         <v>238</v>
       </c>
       <c r="G92" s="5" t="s">
@@ -7006,13 +6969,13 @@
       <c r="H92" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I92" s="35" t="n">
+      <c r="I92" s="27" t="n">
         <v>0.29</v>
       </c>
-      <c r="J92" s="35" t="n">
+      <c r="J92" s="27" t="n">
         <v>0.29</v>
       </c>
-      <c r="K92" s="39" t="n">
+      <c r="K92" s="30" t="n">
         <v>0.298305154469538</v>
       </c>
       <c r="L92" s="5" t="s">
@@ -7035,11 +6998,11 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="37" t="n">
+      <c r="C93" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38" t="s">
+      <c r="D93" s="29"/>
+      <c r="E93" s="29" t="s">
         <v>239</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -7048,13 +7011,13 @@
       <c r="H93" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I93" s="35" t="n">
+      <c r="I93" s="27" t="n">
         <v>0.49</v>
       </c>
-      <c r="J93" s="35" t="n">
+      <c r="J93" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="K93" s="39" t="n">
+      <c r="K93" s="30" t="n">
         <v>0.497202682134189</v>
       </c>
       <c r="L93" s="5" t="s">
@@ -7077,11 +7040,11 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="37" t="n">
+      <c r="C94" s="28" t="n">
         <v>0.75</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38" t="s">
+      <c r="D94" s="29"/>
+      <c r="E94" s="29" t="s">
         <v>240</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -7090,13 +7053,13 @@
       <c r="H94" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I94" s="35" t="n">
+      <c r="I94" s="27" t="n">
         <v>0.75</v>
       </c>
-      <c r="J94" s="35" t="n">
+      <c r="J94" s="27" t="n">
         <v>0.75</v>
       </c>
-      <c r="K94" s="39" t="n">
+      <c r="K94" s="30" t="n">
         <v>0.751141552511416</v>
       </c>
       <c r="L94" s="5" t="s">
@@ -7119,11 +7082,11 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="37" t="n">
+      <c r="C95" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38" t="s">
+      <c r="D95" s="29"/>
+      <c r="E95" s="29" t="s">
         <v>241</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -7132,13 +7095,13 @@
       <c r="H95" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I95" s="35" t="n">
+      <c r="I95" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="J95" s="35" t="n">
+      <c r="J95" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="K95" s="39" t="n">
+      <c r="K95" s="30" t="n">
         <v>1</v>
       </c>
       <c r="L95" s="5" t="s">
@@ -7160,48 +7123,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="21" t="s">
+    <row r="96" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
       <c r="N96" s="7"/>
-      <c r="O96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R96" s="22"/>
+      <c r="O96" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P96" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q96" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R96" s="19"/>
       <c r="AMJ96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="37" t="n">
+      <c r="C97" s="28" t="n">
         <v>0.05</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E97" s="38" t="s">
+      <c r="E97" s="29" t="s">
         <v>244</v>
       </c>
       <c r="F97" s="5" t="s">
@@ -7219,7 +7182,7 @@
       <c r="J97" s="13" t="n">
         <v>83.83</v>
       </c>
-      <c r="K97" s="39" t="n">
+      <c r="K97" s="30" t="n">
         <v>93.3231733748249</v>
       </c>
       <c r="L97" s="5" t="s">
@@ -7242,13 +7205,13 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="37" t="n">
+      <c r="C98" s="28" t="n">
         <v>0.1</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="38" t="s">
+      <c r="E98" s="29" t="s">
         <v>246</v>
       </c>
       <c r="F98" s="5" t="s">
@@ -7266,7 +7229,7 @@
       <c r="J98" s="13" t="n">
         <v>91.34</v>
       </c>
-      <c r="K98" s="39" t="n">
+      <c r="K98" s="30" t="n">
         <v>96.6501323793911</v>
       </c>
       <c r="L98" s="5" t="s">
@@ -7289,13 +7252,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="37" t="n">
+      <c r="C99" s="28" t="n">
         <v>0.2</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E99" s="38" t="s">
+      <c r="E99" s="29" t="s">
         <v>248</v>
       </c>
       <c r="F99" s="5" t="s">
@@ -7313,7 +7276,7 @@
       <c r="J99" s="13" t="n">
         <v>94.78</v>
       </c>
-      <c r="K99" s="39" t="n">
+      <c r="K99" s="30" t="n">
         <v>97.871349207031</v>
       </c>
       <c r="L99" s="5" t="s">
@@ -7336,13 +7299,13 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="37" t="n">
+      <c r="C100" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E100" s="38" t="s">
+      <c r="E100" s="29" t="s">
         <v>250</v>
       </c>
       <c r="F100" s="5" t="s">
@@ -7360,7 +7323,7 @@
       <c r="J100" s="13" t="n">
         <v>95.57</v>
       </c>
-      <c r="K100" s="39" t="n">
+      <c r="K100" s="30" t="n">
         <v>98.2071633736887</v>
       </c>
       <c r="L100" s="5" t="s">
@@ -7383,13 +7346,13 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="37" t="n">
+      <c r="C101" s="28" t="n">
         <v>0.3</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E101" s="38" t="s">
+      <c r="E101" s="29" t="s">
         <v>252</v>
       </c>
       <c r="F101" s="5" t="s">
@@ -7407,7 +7370,7 @@
       <c r="J101" s="13" t="n">
         <v>96.04</v>
       </c>
-      <c r="K101" s="39" t="n">
+      <c r="K101" s="30" t="n">
         <v>98.4825254647813</v>
       </c>
       <c r="L101" s="5" t="s">
@@ -7430,13 +7393,13 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="37" t="n">
+      <c r="C102" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E102" s="38" t="s">
+      <c r="E102" s="29" t="s">
         <v>254</v>
       </c>
       <c r="F102" s="5" t="s">
@@ -7454,7 +7417,7 @@
       <c r="J102" s="13" t="n">
         <v>96.95</v>
       </c>
-      <c r="K102" s="39" t="n">
+      <c r="K102" s="30" t="n">
         <v>98.9116686268137</v>
       </c>
       <c r="L102" s="5" t="s">
@@ -7477,13 +7440,13 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="37" t="n">
+      <c r="C103" s="28" t="n">
         <v>0.75</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E103" s="38" t="s">
+      <c r="E103" s="29" t="s">
         <v>256</v>
       </c>
       <c r="F103" s="5" t="s">
@@ -7501,7 +7464,7 @@
       <c r="J103" s="13" t="n">
         <v>97.34</v>
       </c>
-      <c r="K103" s="39" t="n">
+      <c r="K103" s="30" t="n">
         <v>99.0776279628208</v>
       </c>
       <c r="L103" s="5" t="s">
@@ -7524,13 +7487,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="37" t="n">
+      <c r="C104" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E104" s="38" t="s">
+      <c r="E104" s="29" t="s">
         <v>258</v>
       </c>
       <c r="F104" s="5" t="s">
@@ -7548,7 +7511,7 @@
       <c r="J104" s="13" t="n">
         <v>97.36</v>
       </c>
-      <c r="K104" s="39" t="n">
+      <c r="K104" s="30" t="n">
         <v>99.0701430670616</v>
       </c>
       <c r="L104" s="5" t="s">
@@ -7570,50 +7533,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="21" t="s">
+    <row r="105" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L105" s="22"/>
-      <c r="M105" s="22"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
       <c r="N105" s="7"/>
-      <c r="O105" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P105" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q105" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R105" s="22"/>
+      <c r="O105" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P105" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q105" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R105" s="19"/>
       <c r="AMJ105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="37" t="n">
+      <c r="C106" s="28" t="n">
         <v>0.05</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38" t="s">
+      <c r="D106" s="29"/>
+      <c r="E106" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G106" s="39" t="n">
+      <c r="G106" s="30" t="n">
         <v>0.0477170947650178</v>
       </c>
-      <c r="H106" s="41" t="n">
+      <c r="H106" s="32" t="n">
         <v>0.0287163158205083</v>
       </c>
       <c r="I106" s="13" t="s">
@@ -7622,7 +7585,7 @@
       <c r="J106" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K106" s="39" t="n">
+      <c r="K106" s="30" t="n">
         <v>0.0477170947650178</v>
       </c>
       <c r="L106" s="5" t="s">
@@ -7645,17 +7608,17 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="37" t="n">
+      <c r="C107" s="28" t="n">
         <v>0.1</v>
       </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38" t="s">
+      <c r="D107" s="29"/>
+      <c r="E107" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G107" s="39" t="n">
+      <c r="G107" s="30" t="n">
         <v>0.0983270705718845</v>
       </c>
-      <c r="H107" s="41" t="n">
+      <c r="H107" s="32" t="n">
         <v>0.0788077127189103</v>
       </c>
       <c r="I107" s="13" t="s">
@@ -7664,7 +7627,7 @@
       <c r="J107" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K107" s="39" t="n">
+      <c r="K107" s="30" t="n">
         <v>0.0983270705718845</v>
       </c>
       <c r="L107" s="5" t="s">
@@ -7687,17 +7650,17 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="37" t="n">
+      <c r="C108" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38" t="s">
+      <c r="D108" s="29"/>
+      <c r="E108" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="G108" s="39" t="n">
+      <c r="G108" s="30" t="n">
         <v>0.198569001904566</v>
       </c>
-      <c r="H108" s="41" t="n">
+      <c r="H108" s="32" t="n">
         <v>0.186656052833304</v>
       </c>
       <c r="I108" s="13" t="s">
@@ -7706,7 +7669,7 @@
       <c r="J108" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K108" s="39" t="n">
+      <c r="K108" s="30" t="n">
         <v>0.198569001904566</v>
       </c>
       <c r="L108" s="5" t="s">
@@ -7729,17 +7692,17 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="37" t="n">
+      <c r="C109" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38" t="s">
+      <c r="D109" s="29"/>
+      <c r="E109" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G109" s="39" t="n">
+      <c r="G109" s="30" t="n">
         <v>0.248818654449992</v>
       </c>
-      <c r="H109" s="41" t="n">
+      <c r="H109" s="32" t="n">
         <v>0.236835898343063</v>
       </c>
       <c r="I109" s="13" t="s">
@@ -7748,7 +7711,7 @@
       <c r="J109" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K109" s="39" t="n">
+      <c r="K109" s="30" t="n">
         <v>0.248818654449992</v>
       </c>
       <c r="L109" s="5" t="s">
@@ -7771,17 +7734,17 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="37" t="n">
+      <c r="C110" s="28" t="n">
         <v>0.3</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38" t="s">
+      <c r="D110" s="29"/>
+      <c r="E110" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G110" s="39" t="n">
+      <c r="G110" s="30" t="n">
         <v>0.298913882740516</v>
       </c>
-      <c r="H110" s="41" t="n">
+      <c r="H110" s="32" t="n">
         <v>0.294622324429506</v>
       </c>
       <c r="I110" s="13" t="s">
@@ -7790,7 +7753,7 @@
       <c r="J110" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K110" s="39" t="n">
+      <c r="K110" s="30" t="n">
         <v>0.298913882740516</v>
       </c>
       <c r="L110" s="5" t="s">
@@ -7813,17 +7776,17 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="37" t="n">
+      <c r="C111" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38" t="s">
+      <c r="D111" s="29"/>
+      <c r="E111" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="G111" s="39" t="n">
+      <c r="G111" s="30" t="n">
         <v>0.498543264528749</v>
       </c>
-      <c r="H111" s="41" t="n">
+      <c r="H111" s="32" t="n">
         <v>0.4987027537001</v>
       </c>
       <c r="I111" s="13" t="s">
@@ -7832,7 +7795,7 @@
       <c r="J111" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K111" s="39" t="n">
+      <c r="K111" s="30" t="n">
         <v>0.498543264528749</v>
       </c>
       <c r="L111" s="5" t="s">
@@ -7855,17 +7818,17 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="37" t="n">
+      <c r="C112" s="28" t="n">
         <v>0.75</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38" t="s">
+      <c r="D112" s="29"/>
+      <c r="E112" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="G112" s="39" t="n">
+      <c r="G112" s="30" t="n">
         <v>0.746414783548669</v>
       </c>
-      <c r="H112" s="41" t="n">
+      <c r="H112" s="32" t="n">
         <v>0.754643552096232</v>
       </c>
       <c r="I112" s="13" t="s">
@@ -7874,7 +7837,7 @@
       <c r="J112" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K112" s="39" t="n">
+      <c r="K112" s="30" t="n">
         <v>0.746414783548669</v>
       </c>
       <c r="L112" s="5" t="s">
@@ -7897,17 +7860,17 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="37" t="n">
+      <c r="C113" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38" t="s">
+      <c r="D113" s="29"/>
+      <c r="E113" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G113" s="39" t="n">
+      <c r="G113" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H113" s="41" t="n">
+      <c r="H113" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I113" s="13" t="s">
@@ -7916,7 +7879,7 @@
       <c r="J113" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K113" s="39" t="n">
+      <c r="K113" s="30" t="n">
         <v>1</v>
       </c>
       <c r="L113" s="5" t="s">
@@ -7938,64 +7901,64 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="21" t="s">
+    <row r="114" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F114" s="22"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
       <c r="N114" s="7"/>
-      <c r="O114" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P114" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q114" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R114" s="22"/>
+      <c r="O114" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P114" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q114" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R114" s="19"/>
       <c r="AMJ114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="37" t="n">
+      <c r="C115" s="28" t="n">
         <v>0.05</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E115" s="38" t="s">
+      <c r="E115" s="29" t="s">
         <v>270</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G115" s="41" t="n">
+      <c r="G115" s="32" t="n">
         <v>70</v>
       </c>
-      <c r="H115" s="41" t="n">
+      <c r="H115" s="32" t="n">
         <v>72.9</v>
       </c>
-      <c r="I115" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="39" t="n">
+      <c r="I115" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="30" t="n">
         <v>93.3158848399436</v>
       </c>
       <c r="L115" s="5" t="s">
@@ -8018,31 +7981,31 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="37" t="n">
+      <c r="C116" s="28" t="n">
         <v>0.1</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E116" s="38" t="s">
+      <c r="E116" s="29" t="s">
         <v>272</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G116" s="41" t="n">
+      <c r="G116" s="32" t="n">
         <v>85</v>
       </c>
-      <c r="H116" s="41" t="n">
+      <c r="H116" s="32" t="n">
         <v>87.1</v>
       </c>
-      <c r="I116" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" s="39" t="n">
+      <c r="I116" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" s="30" t="n">
         <v>95.8454591068741</v>
       </c>
       <c r="L116" s="5" t="s">
@@ -8065,31 +8028,31 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="37" t="n">
+      <c r="C117" s="28" t="n">
         <v>0.2</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E117" s="38" t="s">
+      <c r="E117" s="29" t="s">
         <v>274</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G117" s="41" t="n">
+      <c r="G117" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="H117" s="41" t="n">
+      <c r="H117" s="32" t="n">
         <v>92.9</v>
       </c>
-      <c r="I117" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K117" s="39" t="n">
+      <c r="I117" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" s="30" t="n">
         <v>96.895408419572</v>
       </c>
       <c r="L117" s="5" t="s">
@@ -8112,31 +8075,31 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="37" t="n">
+      <c r="C118" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E118" s="38" t="s">
+      <c r="E118" s="29" t="s">
         <v>276</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G118" s="41" t="n">
+      <c r="G118" s="32" t="n">
         <v>92</v>
       </c>
-      <c r="H118" s="41" t="n">
+      <c r="H118" s="32" t="n">
         <v>94.1</v>
       </c>
-      <c r="I118" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="39" t="n">
+      <c r="I118" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="30" t="n">
         <v>97.1618090452261</v>
       </c>
       <c r="L118" s="5" t="s">
@@ -8159,31 +8122,31 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="37" t="n">
+      <c r="C119" s="28" t="n">
         <v>0.3</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E119" s="38" t="s">
+      <c r="E119" s="29" t="s">
         <v>278</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G119" s="41" t="n">
+      <c r="G119" s="32" t="n">
         <v>94</v>
       </c>
-      <c r="H119" s="41" t="n">
+      <c r="H119" s="32" t="n">
         <v>94.7</v>
       </c>
-      <c r="I119" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K119" s="39" t="n">
+      <c r="I119" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="30" t="n">
         <v>97.2403630396195</v>
       </c>
       <c r="L119" s="5" t="s">
@@ -8206,31 +8169,31 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="37" t="n">
+      <c r="C120" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E120" s="38" t="s">
+      <c r="E120" s="29" t="s">
         <v>280</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G120" s="41" t="n">
+      <c r="G120" s="32" t="n">
         <v>95</v>
       </c>
-      <c r="H120" s="41" t="n">
+      <c r="H120" s="32" t="n">
         <v>95.6</v>
       </c>
-      <c r="I120" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" s="39" t="n">
+      <c r="I120" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="30" t="n">
         <v>97.4425015594503</v>
       </c>
       <c r="L120" s="5" t="s">
@@ -8253,31 +8216,31 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="37" t="n">
+      <c r="C121" s="28" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E121" s="38" t="s">
+      <c r="E121" s="29" t="s">
         <v>282</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G121" s="39" t="n">
+      <c r="G121" s="30" t="n">
         <v>95</v>
       </c>
-      <c r="H121" s="41" t="n">
+      <c r="H121" s="32" t="n">
         <v>95.4</v>
       </c>
-      <c r="I121" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K121" s="39" t="n">
+      <c r="I121" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121" s="30" t="n">
         <v>97.3586679199678</v>
       </c>
       <c r="L121" s="5" t="s">
@@ -8300,31 +8263,31 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="37" t="n">
+      <c r="C122" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E122" s="38" t="s">
+      <c r="E122" s="29" t="s">
         <v>284</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G122" s="41" t="n">
+      <c r="G122" s="32" t="n">
         <v>95</v>
       </c>
-      <c r="H122" s="41" t="n">
+      <c r="H122" s="32" t="n">
         <v>95</v>
       </c>
-      <c r="I122" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K122" s="39" t="n">
+      <c r="I122" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="30" t="n">
         <v>97.1622054175169</v>
       </c>
       <c r="L122" s="5" t="s">
@@ -8346,59 +8309,59 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="21" t="s">
+    <row r="123" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F123" s="22"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
       <c r="N123" s="7"/>
-      <c r="O123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q123" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R123" s="22"/>
+      <c r="O123" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P123" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q123" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R123" s="19"/>
       <c r="AMJ123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="37" t="n">
+      <c r="C124" s="28" t="n">
         <v>0.05</v>
       </c>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38" t="s">
+      <c r="D124" s="29"/>
+      <c r="E124" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G124" s="39" t="n">
+      <c r="G124" s="30" t="n">
         <v>0.0477170947650178</v>
       </c>
-      <c r="H124" s="41" t="n">
+      <c r="H124" s="32" t="n">
         <v>0.0522368908785036</v>
       </c>
-      <c r="I124" s="35" t="n">
+      <c r="I124" s="27" t="n">
         <v>0.049</v>
       </c>
-      <c r="J124" s="35" t="n">
+      <c r="J124" s="27" t="n">
         <v>0.049</v>
       </c>
-      <c r="K124" s="41" t="n">
+      <c r="K124" s="32" t="n">
         <v>0.0505568790340643</v>
       </c>
       <c r="L124" s="5" t="s">
@@ -8421,26 +8384,26 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="37" t="n">
+      <c r="C125" s="28" t="n">
         <v>0.1</v>
       </c>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38" t="s">
+      <c r="D125" s="29"/>
+      <c r="E125" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="G125" s="39" t="n">
+      <c r="G125" s="30" t="n">
         <v>0.0983270705718845</v>
       </c>
-      <c r="H125" s="41" t="n">
+      <c r="H125" s="32" t="n">
         <v>0.100054175814776</v>
       </c>
-      <c r="I125" s="35" t="n">
+      <c r="I125" s="27" t="n">
         <v>0.098</v>
       </c>
-      <c r="J125" s="35" t="n">
+      <c r="J125" s="27" t="n">
         <v>0.098</v>
       </c>
-      <c r="K125" s="41" t="n">
+      <c r="K125" s="32" t="n">
         <v>0.100431657605929</v>
       </c>
       <c r="L125" s="5" t="s">
@@ -8463,26 +8426,26 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="37" t="n">
+      <c r="C126" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38" t="s">
+      <c r="D126" s="29"/>
+      <c r="E126" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="G126" s="39" t="n">
+      <c r="G126" s="30" t="n">
         <v>0.198569001904566</v>
       </c>
-      <c r="H126" s="41" t="n">
+      <c r="H126" s="32" t="n">
         <v>0.197798751104901</v>
       </c>
-      <c r="I126" s="35" t="n">
+      <c r="I126" s="27" t="n">
         <v>0.197</v>
       </c>
-      <c r="J126" s="35" t="n">
+      <c r="J126" s="27" t="n">
         <v>0.198</v>
       </c>
-      <c r="K126" s="41" t="n">
+      <c r="K126" s="32" t="n">
         <v>0.200832773400118</v>
       </c>
       <c r="L126" s="5" t="s">
@@ -8505,26 +8468,26 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="37" t="n">
+      <c r="C127" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38" t="s">
+      <c r="D127" s="29"/>
+      <c r="E127" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="G127" s="39" t="n">
+      <c r="G127" s="30" t="n">
         <v>0.248818654449992</v>
       </c>
-      <c r="H127" s="41" t="n">
+      <c r="H127" s="32" t="n">
         <v>0.245986712668587</v>
       </c>
-      <c r="I127" s="35" t="n">
+      <c r="I127" s="27" t="n">
         <v>0.251</v>
       </c>
-      <c r="J127" s="35" t="n">
+      <c r="J127" s="27" t="n">
         <v>0.25</v>
       </c>
-      <c r="K127" s="41" t="n">
+      <c r="K127" s="32" t="n">
         <v>0.25153218088897</v>
       </c>
       <c r="L127" s="5" t="s">
@@ -8547,26 +8510,26 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="37" t="n">
+      <c r="C128" s="28" t="n">
         <v>0.3</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38" t="s">
+      <c r="D128" s="29"/>
+      <c r="E128" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="G128" s="39" t="n">
+      <c r="G128" s="30" t="n">
         <v>0.298913882740516</v>
       </c>
-      <c r="H128" s="41" t="n">
+      <c r="H128" s="32" t="n">
         <v>0.294146160645548</v>
       </c>
-      <c r="I128" s="35" t="n">
+      <c r="I128" s="27" t="n">
         <v>0.301</v>
       </c>
-      <c r="J128" s="35" t="n">
+      <c r="J128" s="27" t="n">
         <v>0.298</v>
       </c>
-      <c r="K128" s="41" t="n">
+      <c r="K128" s="32" t="n">
         <v>0.301315334025614</v>
       </c>
       <c r="L128" s="5" t="s">
@@ -8589,26 +8552,26 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="37" t="n">
+      <c r="C129" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38" t="s">
+      <c r="D129" s="29"/>
+      <c r="E129" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G129" s="39" t="n">
+      <c r="G129" s="30" t="n">
         <v>0.498543264528749</v>
       </c>
-      <c r="H129" s="41" t="n">
+      <c r="H129" s="32" t="n">
         <v>0.490775854694762</v>
       </c>
-      <c r="I129" s="35" t="n">
+      <c r="I129" s="27" t="n">
         <v>0.501</v>
       </c>
-      <c r="J129" s="35" t="n">
+      <c r="J129" s="27" t="n">
         <v>0.499</v>
       </c>
-      <c r="K129" s="41" t="n">
+      <c r="K129" s="32" t="n">
         <v>0.500661739254373</v>
       </c>
       <c r="L129" s="5" t="s">
@@ -8631,26 +8594,26 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="37" t="n">
+      <c r="C130" s="28" t="n">
         <v>0.75</v>
       </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38" t="s">
+      <c r="D130" s="29"/>
+      <c r="E130" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G130" s="39" t="n">
+      <c r="G130" s="30" t="n">
         <v>0.746414783548669</v>
       </c>
-      <c r="H130" s="41" t="n">
+      <c r="H130" s="32" t="n">
         <v>0.755866670468478</v>
       </c>
-      <c r="I130" s="35" t="n">
+      <c r="I130" s="27" t="n">
         <v>0.753</v>
       </c>
-      <c r="J130" s="35" t="n">
+      <c r="J130" s="27" t="n">
         <v>0.747</v>
       </c>
-      <c r="K130" s="41" t="n">
+      <c r="K130" s="32" t="n">
         <v>0.749669130372814</v>
       </c>
       <c r="L130" s="5" t="s">
@@ -8673,26 +8636,26 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="37" t="n">
+      <c r="C131" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38" t="s">
+      <c r="D131" s="29"/>
+      <c r="E131" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="G131" s="39" t="n">
+      <c r="G131" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H131" s="41" t="n">
+      <c r="H131" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="I131" s="35" t="n">
+      <c r="I131" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="J131" s="35" t="n">
+      <c r="J131" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="K131" s="41" t="n">
+      <c r="K131" s="32" t="n">
         <v>1</v>
       </c>
       <c r="L131" s="5" t="s">
@@ -8714,64 +8677,64 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="21" t="s">
+    <row r="132" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F132" s="22"/>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I132" s="23"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L132" s="22"/>
-      <c r="M132" s="22"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I132" s="20"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
       <c r="N132" s="7"/>
-      <c r="O132" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P132" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q132" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R132" s="22"/>
+      <c r="O132" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P132" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q132" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R132" s="19"/>
       <c r="AMJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="37" t="n">
+      <c r="C133" s="28" t="n">
         <v>0.05</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E133" s="38" t="s">
+      <c r="E133" s="29" t="s">
         <v>296</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G133" s="41" t="n">
+      <c r="G133" s="32" t="n">
         <v>70</v>
       </c>
-      <c r="H133" s="39" t="n">
+      <c r="H133" s="30" t="n">
         <v>83.1</v>
       </c>
-      <c r="I133" s="35" t="n">
+      <c r="I133" s="27" t="n">
         <v>80.58</v>
       </c>
-      <c r="J133" s="35" t="n">
+      <c r="J133" s="27" t="n">
         <v>87.54</v>
       </c>
-      <c r="K133" s="41" t="n">
+      <c r="K133" s="32" t="n">
         <v>93.8929854414823</v>
       </c>
       <c r="L133" s="5" t="s">
@@ -8794,31 +8757,31 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="37" t="n">
+      <c r="C134" s="28" t="n">
         <v>0.1</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E134" s="38" t="s">
+      <c r="E134" s="29" t="s">
         <v>298</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G134" s="41" t="n">
+      <c r="G134" s="32" t="n">
         <v>85</v>
       </c>
-      <c r="H134" s="39" t="n">
+      <c r="H134" s="30" t="n">
         <v>89.3</v>
       </c>
-      <c r="I134" s="35" t="n">
+      <c r="I134" s="27" t="n">
         <v>88.15</v>
       </c>
-      <c r="J134" s="35" t="n">
+      <c r="J134" s="27" t="n">
         <v>92.44</v>
       </c>
-      <c r="K134" s="41" t="n">
+      <c r="K134" s="32" t="n">
         <v>96.2908735968765</v>
       </c>
       <c r="L134" s="5" t="s">
@@ -8841,31 +8804,31 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="37" t="n">
+      <c r="C135" s="28" t="n">
         <v>0.2</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E135" s="38" t="s">
+      <c r="E135" s="29" t="s">
         <v>300</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G135" s="41" t="n">
+      <c r="G135" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="H135" s="39" t="n">
+      <c r="H135" s="30" t="n">
         <v>93.4</v>
       </c>
-      <c r="I135" s="35" t="n">
+      <c r="I135" s="27" t="n">
         <v>92.3</v>
       </c>
-      <c r="J135" s="35" t="n">
+      <c r="J135" s="27" t="n">
         <v>95.02</v>
       </c>
-      <c r="K135" s="41" t="n">
+      <c r="K135" s="32" t="n">
         <v>97.2779722866019</v>
       </c>
       <c r="L135" s="5" t="s">
@@ -8888,31 +8851,31 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="37" t="n">
+      <c r="C136" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E136" s="38" t="s">
+      <c r="E136" s="29" t="s">
         <v>302</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G136" s="41" t="n">
+      <c r="G136" s="32" t="n">
         <v>92</v>
       </c>
-      <c r="H136" s="39" t="n">
+      <c r="H136" s="30" t="n">
         <v>94.3</v>
       </c>
-      <c r="I136" s="35" t="n">
+      <c r="I136" s="27" t="n">
         <v>93.19</v>
       </c>
-      <c r="J136" s="35" t="n">
+      <c r="J136" s="27" t="n">
         <v>95.5</v>
       </c>
-      <c r="K136" s="41" t="n">
+      <c r="K136" s="32" t="n">
         <v>97.5481680353759</v>
       </c>
       <c r="L136" s="5" t="s">
@@ -8935,31 +8898,31 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="37" t="n">
+      <c r="C137" s="28" t="n">
         <v>0.3</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E137" s="38" t="s">
+      <c r="E137" s="29" t="s">
         <v>304</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G137" s="41" t="n">
+      <c r="G137" s="32" t="n">
         <v>94</v>
       </c>
-      <c r="H137" s="39" t="n">
+      <c r="H137" s="30" t="n">
         <v>94.7</v>
       </c>
-      <c r="I137" s="35" t="n">
+      <c r="I137" s="27" t="n">
         <v>93.73</v>
       </c>
-      <c r="J137" s="35" t="n">
+      <c r="J137" s="27" t="n">
         <v>95.78</v>
       </c>
-      <c r="K137" s="41" t="n">
+      <c r="K137" s="32" t="n">
         <v>97.6863159284441</v>
       </c>
       <c r="L137" s="5" t="s">
@@ -8982,31 +8945,31 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="37" t="n">
+      <c r="C138" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E138" s="38" t="s">
+      <c r="E138" s="29" t="s">
         <v>306</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G138" s="41" t="n">
+      <c r="G138" s="32" t="n">
         <v>95</v>
       </c>
-      <c r="H138" s="39" t="n">
+      <c r="H138" s="30" t="n">
         <v>95.3</v>
       </c>
-      <c r="I138" s="35" t="n">
+      <c r="I138" s="27" t="n">
         <v>94.71</v>
       </c>
-      <c r="J138" s="35" t="n">
+      <c r="J138" s="27" t="n">
         <v>96.35</v>
       </c>
-      <c r="K138" s="41" t="n">
+      <c r="K138" s="32" t="n">
         <v>97.8666666666667</v>
       </c>
       <c r="L138" s="5" t="s">
@@ -9029,31 +8992,31 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="37" t="n">
+      <c r="C139" s="28" t="n">
         <v>0.75</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E139" s="38" t="s">
+      <c r="E139" s="29" t="s">
         <v>308</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G139" s="39" t="n">
+      <c r="G139" s="30" t="n">
         <v>95</v>
       </c>
-      <c r="H139" s="39" t="n">
+      <c r="H139" s="30" t="n">
         <v>95</v>
       </c>
-      <c r="I139" s="35" t="n">
+      <c r="I139" s="27" t="n">
         <v>94.93</v>
       </c>
-      <c r="J139" s="35" t="n">
+      <c r="J139" s="27" t="n">
         <v>96.27</v>
       </c>
-      <c r="K139" s="41" t="n">
+      <c r="K139" s="32" t="n">
         <v>97.804489308009</v>
       </c>
       <c r="L139" s="5" t="s">
@@ -9076,32 +9039,32 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="39"/>
-      <c r="C140" s="37" t="n">
+      <c r="A140" s="30"/>
+      <c r="C140" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E140" s="38" t="s">
+      <c r="E140" s="29" t="s">
         <v>310</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G140" s="41" t="n">
+      <c r="G140" s="32" t="n">
         <v>95</v>
       </c>
-      <c r="H140" s="39" t="n">
+      <c r="H140" s="30" t="n">
         <v>94.3</v>
       </c>
-      <c r="I140" s="35" t="n">
+      <c r="I140" s="27" t="n">
         <v>95.11</v>
       </c>
-      <c r="J140" s="35" t="n">
+      <c r="J140" s="27" t="n">
         <v>96.15</v>
       </c>
-      <c r="K140" s="41" t="n">
+      <c r="K140" s="32" t="n">
         <v>97.638217928073</v>
       </c>
       <c r="L140" s="5" t="s">
@@ -9123,44 +9086,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="21" t="s">
+    <row r="141" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I141" s="23"/>
-      <c r="J141" s="23"/>
-      <c r="K141" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L141" s="22"/>
-      <c r="M141" s="22"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
       <c r="N141" s="7"/>
-      <c r="O141" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P141" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q141" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R141" s="22"/>
+      <c r="O141" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P141" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q141" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R141" s="19"/>
       <c r="AMJ141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="37" t="n">
+      <c r="C142" s="28" t="n">
         <v>0.05</v>
       </c>
-      <c r="D142" s="38"/>
-      <c r="E142" s="38" t="s">
+      <c r="D142" s="29"/>
+      <c r="E142" s="29" t="s">
         <v>312</v>
       </c>
       <c r="G142" s="5" t="s">
@@ -9169,10 +9132,10 @@
       <c r="H142" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I142" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J142" s="35" t="s">
+      <c r="I142" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J142" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K142" s="5" t="s">
@@ -9198,11 +9161,11 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="37" t="n">
+      <c r="C143" s="28" t="n">
         <v>0.1</v>
       </c>
-      <c r="D143" s="38"/>
-      <c r="E143" s="38" t="s">
+      <c r="D143" s="29"/>
+      <c r="E143" s="29" t="s">
         <v>313</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -9211,10 +9174,10 @@
       <c r="H143" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I143" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J143" s="35" t="s">
+      <c r="I143" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J143" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K143" s="5" t="s">
@@ -9240,11 +9203,11 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="37" t="n">
+      <c r="C144" s="28" t="n">
         <v>0.2</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="38" t="s">
+      <c r="D144" s="29"/>
+      <c r="E144" s="29" t="s">
         <v>314</v>
       </c>
       <c r="G144" s="5" t="s">
@@ -9253,10 +9216,10 @@
       <c r="H144" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I144" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J144" s="35" t="s">
+      <c r="I144" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J144" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K144" s="5" t="s">
@@ -9282,11 +9245,11 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="37" t="n">
+      <c r="C145" s="28" t="n">
         <v>0.25</v>
       </c>
-      <c r="D145" s="38"/>
-      <c r="E145" s="38" t="s">
+      <c r="D145" s="29"/>
+      <c r="E145" s="29" t="s">
         <v>315</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -9295,10 +9258,10 @@
       <c r="H145" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I145" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J145" s="35" t="s">
+      <c r="I145" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J145" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K145" s="5" t="s">
@@ -9324,11 +9287,11 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="37" t="n">
+      <c r="C146" s="28" t="n">
         <v>0.3</v>
       </c>
-      <c r="D146" s="38"/>
-      <c r="E146" s="38" t="s">
+      <c r="D146" s="29"/>
+      <c r="E146" s="29" t="s">
         <v>316</v>
       </c>
       <c r="G146" s="5" t="s">
@@ -9337,10 +9300,10 @@
       <c r="H146" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I146" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J146" s="35" t="s">
+      <c r="I146" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K146" s="5" t="s">
@@ -9366,11 +9329,11 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="37" t="n">
+      <c r="C147" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="D147" s="38"/>
-      <c r="E147" s="38" t="s">
+      <c r="D147" s="29"/>
+      <c r="E147" s="29" t="s">
         <v>317</v>
       </c>
       <c r="G147" s="5" t="s">
@@ -9379,10 +9342,10 @@
       <c r="H147" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I147" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J147" s="35" t="s">
+      <c r="I147" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K147" s="5" t="s">
@@ -9408,11 +9371,11 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="37" t="n">
+      <c r="C148" s="28" t="n">
         <v>0.75</v>
       </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38" t="s">
+      <c r="D148" s="29"/>
+      <c r="E148" s="29" t="s">
         <v>318</v>
       </c>
       <c r="G148" s="5" t="s">
@@ -9421,10 +9384,10 @@
       <c r="H148" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I148" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J148" s="35" t="s">
+      <c r="I148" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K148" s="5" t="s">
@@ -9450,11 +9413,11 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="37" t="n">
+      <c r="C149" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38" t="s">
+      <c r="D149" s="29"/>
+      <c r="E149" s="29" t="s">
         <v>319</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -9463,10 +9426,10 @@
       <c r="H149" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I149" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J149" s="35" t="s">
+      <c r="I149" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K149" s="5" t="s">
@@ -9491,50 +9454,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="21" t="s">
+    <row r="150" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H150" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I150" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J150" s="23"/>
-      <c r="K150" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L150" s="22"/>
-      <c r="M150" s="22"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J150" s="20"/>
+      <c r="K150" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P150" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q150" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R150" s="22"/>
+      <c r="O150" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P150" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q150" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R150" s="19"/>
       <c r="AMJ150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="37" t="n">
+      <c r="C151" s="28" t="n">
         <v>0.05</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E151" s="38" t="s">
+      <c r="E151" s="29" t="s">
         <v>322</v>
       </c>
       <c r="F151" s="5" t="s">
@@ -9546,10 +9509,10 @@
       <c r="H151" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I151" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J151" s="35" t="s">
+      <c r="I151" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K151" s="5" t="s">
@@ -9575,13 +9538,13 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="37" t="n">
+      <c r="C152" s="28" t="n">
         <v>0.1</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E152" s="38" t="s">
+      <c r="E152" s="29" t="s">
         <v>324</v>
       </c>
       <c r="F152" s="5" t="s">
@@ -9593,10 +9556,10 @@
       <c r="H152" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I152" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J152" s="35" t="s">
+      <c r="I152" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J152" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K152" s="5" t="s">
@@ -9622,13 +9585,13 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="37" t="n">
+      <c r="C153" s="28" t="n">
         <v>0.2</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E153" s="38" t="s">
+      <c r="E153" s="29" t="s">
         <v>326</v>
       </c>
       <c r="F153" s="5" t="s">
@@ -9640,10 +9603,10 @@
       <c r="H153" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I153" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J153" s="35" t="s">
+      <c r="I153" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K153" s="5" t="s">
@@ -9669,13 +9632,13 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="37" t="n">
+      <c r="C154" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E154" s="38" t="s">
+      <c r="E154" s="29" t="s">
         <v>328</v>
       </c>
       <c r="F154" s="5" t="s">
@@ -9687,10 +9650,10 @@
       <c r="H154" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I154" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J154" s="35" t="s">
+      <c r="I154" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J154" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K154" s="5" t="s">
@@ -9716,13 +9679,13 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="37" t="n">
+      <c r="C155" s="28" t="n">
         <v>0.3</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E155" s="38" t="s">
+      <c r="E155" s="29" t="s">
         <v>330</v>
       </c>
       <c r="F155" s="5" t="s">
@@ -9734,10 +9697,10 @@
       <c r="H155" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I155" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J155" s="35" t="s">
+      <c r="I155" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J155" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K155" s="5" t="s">
@@ -9763,13 +9726,13 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="37" t="n">
+      <c r="C156" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E156" s="38" t="s">
+      <c r="E156" s="29" t="s">
         <v>332</v>
       </c>
       <c r="F156" s="5" t="s">
@@ -9781,10 +9744,10 @@
       <c r="H156" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I156" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J156" s="35" t="s">
+      <c r="I156" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J156" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K156" s="5" t="s">
@@ -9810,13 +9773,13 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="37" t="n">
+      <c r="C157" s="28" t="n">
         <v>0.75</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E157" s="38" t="s">
+      <c r="E157" s="29" t="s">
         <v>334</v>
       </c>
       <c r="F157" s="5" t="s">
@@ -9828,10 +9791,10 @@
       <c r="H157" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I157" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J157" s="35" t="s">
+      <c r="I157" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J157" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K157" s="5" t="s">
@@ -9857,13 +9820,13 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="37" t="n">
+      <c r="C158" s="28" t="n">
         <v>1</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E158" s="38" t="s">
+      <c r="E158" s="29" t="s">
         <v>336</v>
       </c>
       <c r="F158" s="5" t="s">
@@ -9875,10 +9838,10 @@
       <c r="H158" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I158" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J158" s="35" t="s">
+      <c r="I158" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" s="27" t="s">
         <v>20</v>
       </c>
       <c r="K158" s="5" t="s">
@@ -9907,13 +9870,13 @@
       <c r="A159" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B159" s="43"/>
+      <c r="B159" s="34"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="16"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
       <c r="O159" s="8" t="s">
@@ -9932,8 +9895,8 @@
       <c r="B160" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C160" s="44"/>
-      <c r="D160" s="44"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
       <c r="E160" s="4" t="s">
         <v>339</v>
       </c>
@@ -9961,7 +9924,7 @@
       <c r="M160" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N160" s="43"/>
+      <c r="N160" s="34"/>
       <c r="O160" s="5" t="s">
         <v>6</v>
       </c>
@@ -9979,8 +9942,8 @@
       <c r="B161" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C161" s="44"/>
-      <c r="D161" s="44"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
       <c r="E161" s="4" t="s">
         <v>344</v>
       </c>
@@ -10008,7 +9971,7 @@
       <c r="M161" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N161" s="43"/>
+      <c r="N161" s="34"/>
       <c r="O161" s="5" t="s">
         <v>6</v>
       </c>
@@ -10028,13 +9991,13 @@
       <c r="H162" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I162" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
+      <c r="I162" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
       <c r="L162" s="8"/>
-      <c r="M162" s="45"/>
+      <c r="M162" s="36"/>
       <c r="O162" s="8" t="s">
         <v>55</v>
       </c>
@@ -10051,187 +10014,187 @@
       <c r="M163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M164" s="16"/>
+      <c r="M164" s="15"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M165" s="16"/>
+      <c r="M165" s="15"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M166" s="16"/>
+      <c r="M166" s="15"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M168" s="16"/>
+      <c r="M168" s="15"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M169" s="16"/>
+      <c r="M169" s="15"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M170" s="16"/>
+      <c r="M170" s="15"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M171" s="16"/>
+      <c r="M171" s="15"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M172" s="16"/>
+      <c r="M172" s="15"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M173" s="16"/>
+      <c r="M173" s="15"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M174" s="16"/>
+      <c r="M174" s="15"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M175" s="16"/>
+      <c r="M175" s="15"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M176" s="16"/>
+      <c r="M176" s="15"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M177" s="16"/>
+      <c r="M177" s="15"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M178" s="16"/>
+      <c r="M178" s="15"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M180" s="16"/>
+      <c r="M180" s="15"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M181" s="16"/>
+      <c r="M181" s="15"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M182" s="16"/>
+      <c r="M182" s="15"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M183" s="16"/>
+      <c r="M183" s="15"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M184" s="16"/>
+      <c r="M184" s="15"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M185" s="16"/>
+      <c r="M185" s="15"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M186" s="16"/>
+      <c r="M186" s="15"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M187" s="16"/>
+      <c r="M187" s="15"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M188" s="16"/>
+      <c r="M188" s="15"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M189" s="16"/>
+      <c r="M189" s="15"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M190" s="16"/>
+      <c r="M190" s="15"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M191" s="46"/>
+      <c r="M191" s="37"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M192" s="46"/>
+      <c r="M192" s="37"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M193" s="46"/>
+      <c r="M193" s="37"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M194" s="46"/>
+      <c r="M194" s="37"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M195" s="46"/>
+      <c r="M195" s="37"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M196" s="46"/>
+      <c r="M196" s="37"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M197" s="46"/>
+      <c r="M197" s="37"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M198" s="46"/>
+      <c r="M198" s="37"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M199" s="46"/>
+      <c r="M199" s="37"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M200" s="46"/>
+      <c r="M200" s="37"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M201" s="46"/>
+      <c r="M201" s="37"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M202" s="46"/>
+      <c r="M202" s="37"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M203" s="46"/>
+      <c r="M203" s="37"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M204" s="46"/>
+      <c r="M204" s="37"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M205" s="46"/>
+      <c r="M205" s="37"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M206" s="46"/>
+      <c r="M206" s="37"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M207" s="46"/>
+      <c r="M207" s="37"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M208" s="46"/>
+      <c r="M208" s="37"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M209" s="46"/>
+      <c r="M209" s="37"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M210" s="46"/>
+      <c r="M210" s="37"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M211" s="46"/>
+      <c r="M211" s="37"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M212" s="46"/>
+      <c r="M212" s="37"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M213" s="46"/>
+      <c r="M213" s="37"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M214" s="46"/>
+      <c r="M214" s="37"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M215" s="46"/>
+      <c r="M215" s="37"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M216" s="46"/>
+      <c r="M216" s="37"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M217" s="46"/>
+      <c r="M217" s="37"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M218" s="46"/>
+      <c r="M218" s="37"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M219" s="46"/>
+      <c r="M219" s="37"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M220" s="46"/>
+      <c r="M220" s="37"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M221" s="46"/>
+      <c r="M221" s="37"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M222" s="46"/>
+      <c r="M222" s="37"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M223" s="46"/>
+      <c r="M223" s="37"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M224" s="46"/>
+      <c r="M224" s="37"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M225" s="46"/>
+      <c r="M225" s="37"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M226" s="46"/>
+      <c r="M226" s="37"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M227" s="5"/>

--- a/input/PerModPAR.xlsx
+++ b/input/PerModPAR.xlsx
@@ -1425,9 +1425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>330840</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1441,7 +1441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4947480" y="261000"/>
-          <a:ext cx="9282600" cy="3305520"/>
+          <a:ext cx="9282240" cy="3305160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,9 +1467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1479,7 +1479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1512,9 +1512,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1524,7 +1524,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,9 +1557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1569,7 +1569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,9 +1602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1614,7 +1614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1659,7 +1659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,9 +1692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1704,7 +1704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1737,9 +1737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1749,7 +1749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,9 +1782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1794,7 +1794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,9 +1827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1839,7 +1839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,9 +1872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1884,7 +1884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,9 +1917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1929,7 +1929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,9 +1962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1974,7 +1974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2007,9 +2007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2019,7 +2019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,9 +2052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2064,7 +2064,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,9 +2097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2109,7 +2109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2142,9 +2142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2154,7 +2154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,9 +2187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2199,7 +2199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2232,9 +2232,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2244,7 +2244,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2277,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2289,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,9 +2322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2334,7 +2334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2367,9 +2367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2379,7 +2379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2412,9 +2412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2424,7 +2424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2457,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2469,7 +2469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2502,9 +2502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2514,7 +2514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2547,9 +2547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2559,7 +2559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2592,9 +2592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2604,7 +2604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2637,9 +2637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2649,7 +2649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2682,9 +2682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2694,7 +2694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2727,9 +2727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2739,7 +2739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2772,9 +2772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2784,7 +2784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2817,9 +2817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2829,7 +2829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2862,9 +2862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2874,7 +2874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2907,9 +2907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2919,7 +2919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11886840" cy="7837560"/>
+          <a:ext cx="11887200" cy="7837200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3134,7 +3134,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3152,14 +3152,14 @@
   <dimension ref="A1:AMJ228"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G113" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="G61" activeCellId="0" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15.49"/>
@@ -3171,7 +3171,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="6" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="16.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="8.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="15" style="5" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -5289,7 +5289,7 @@
         <v>92</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>14.9</v>
@@ -5338,7 +5338,7 @@
         <v>92</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>0.1</v>
@@ -5418,7 +5418,7 @@
         <v>92</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>12.1</v>
@@ -5598,7 +5598,7 @@
         <v>92</v>
       </c>
       <c r="G60" s="23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>1</v>
@@ -10207,7 +10207,7 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
